--- a/Template/Шаблон для загрузки стран в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки стран в DirectumRX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agaf73\source\repos\rx-util-importdata-net-core\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D211C69-E91C-4D40-8B8F-8768E03457E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7CEB3F-76A5-4FC9-91BA-5C2A03EEE8B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Страны" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Наименование</t>
   </si>
@@ -32,13 +32,22 @@
   </si>
   <si>
     <t>Состояние</t>
+  </si>
+  <si>
+    <t>Итог</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Подробности</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +69,12 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -75,7 +90,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -98,16 +113,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -388,28 +420,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
